--- a/data/trans_bre/P12A1_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,46</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,31</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,85</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>103,5%</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>64,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>-22,72%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>65,29%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 51,78</t>
+          <t>-1,89; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,67; 59,72</t>
+          <t>-6,31; 2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 47,8</t>
+          <t>-4,11; 3,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 335,04</t>
+          <t>-1,96; 8,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,22; 265,44</t>
+          <t>-56,08; 472,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 261,35</t>
+          <t>-71,02; 87,26</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-71,77; 215,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-36,82; 322,32</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>-48,38%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-63,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-45,66%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 26,61</t>
+          <t>-5,33; 7,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 34,46</t>
+          <t>-8,68; 1,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 23,09</t>
+          <t>-11,31; 0,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 90,3</t>
+          <t>-11,85; 2,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 142,64</t>
+          <t>-52,38; 227,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,07; 82,15</t>
+          <t>-85,41; 45,02</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-90,78; 29,44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-79,3; 34,8</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-18,12</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-11,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>-11,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-23,08%</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-55,02%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-61,43; 40,33</t>
+          <t>-28,21; -2,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 66,16</t>
+          <t>-29,85; -2,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 69,15</t>
+          <t>-27,23; -2,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-82,32; 38,79</t>
+          <t>-27,18; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 428,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 426,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,67</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>-46,35%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-52,46%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-16,13%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 28,06</t>
+          <t>-2,85; 4,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 38,34</t>
+          <t>-6,76; 0,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 27,54</t>
+          <t>-6,7; -0,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 91,27</t>
+          <t>-5,73; 3,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 138,22</t>
+          <t>-42,98; 132,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 102,5</t>
+          <t>-73,55; 5,95</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-76,59; 2,34</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-54,83; 54,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12A1_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>64,99%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-22,72%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,67%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>65,29%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.812375170832135</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.541708933353513</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.05998265869475577</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.132586426709662</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.67837024579392</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2554588720445915</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.01645375889857878</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.904784486750462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 5,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 2,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 3,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 8,85</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-56,08; 472,38</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-71,02; 87,26</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-71,77; 215,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-36,82; 322,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.795542120172595</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.778421857627665</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.058046337823265</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.339192489069297</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.5290263741832855</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7317474489070342</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7107027629613129</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2884217768666845</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.231481582166283</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.653702949767411</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.608860998937164</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.87728445534892</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>4.937527687647033</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.8670639254176437</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.263790677423002</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.32274406667365</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,11</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>19,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-48,38%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-63,29%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-45,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 7,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 1,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,31; 0,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; 2,15</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-52,38; 227,35</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-85,41; 45,02</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-90,78; 29,44</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-79,3; 34,8</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.8666491236026295</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.813825795076151</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.614141540285147</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.940702526023264</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1288228952981123</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4063718186819361</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.6283563785606426</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4721566131318201</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-9,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-11,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-11,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,46</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-55,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.345705686408706</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.206644013509388</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.71336981050855</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.5361535947134</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5421294885578053</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8183375064905392</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.9048476625088568</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8068833541599928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-28,21; -2,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-29,85; -2,7</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-27,23; -2,19</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,18; 6,25</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.208834881171422</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.509968427558117</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.1363001916786771</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.368528460908244</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.174297333785846</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8719890590216203</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3138447768320896</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2760306812839307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,2</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,29</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-46,35%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-52,46%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-16,13%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.429987032312125</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.69913819091724</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-10.8788684203433</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.882541983581921</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4932374622720702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 4,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 0,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,7; -0,43</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,73; 3,2</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-42,98; 132,56</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-73,55; 5,95</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-76,59; 2,34</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-54,83; 54,97</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-25.41241854338847</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-27.93606068474731</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-26.08632192167861</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.75129560388055</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.0106356543384</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.670796449015961</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-2.214585319188948</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.540326143975444</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.3166831029761896</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.012170052833935</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.121854174501772</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.5999263218669684</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06386097223655191</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4366609664004777</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.5215231896636089</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07719531533688899</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.967999595276244</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.561418249592221</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.315327080972345</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.903348959419178</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4416868115383609</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7221936924732706</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7681879440826634</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4956699221672655</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.906565047519377</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2901123489044899</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.2912078583750091</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.415967499261242</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.234552514608343</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1588195406524078</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.04575589403295255</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7665988502568142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1009,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
